--- a/artfynd/A 19874-2024 artfynd.xlsx
+++ b/artfynd/A 19874-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130861296</v>
       </c>
       <c r="B2" t="n">
-        <v>58560</v>
+        <v>58564</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>130861272</v>
       </c>
       <c r="B3" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>130861276</v>
       </c>
       <c r="B4" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 19874-2024 artfynd.xlsx
+++ b/artfynd/A 19874-2024 artfynd.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Petter Olsson, Elias Melchert Thelaus</t>
+          <t>Elias Melchert Thelaus, Petter Olsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>

--- a/artfynd/A 19874-2024 artfynd.xlsx
+++ b/artfynd/A 19874-2024 artfynd.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elias Melchert Thelaus, Petter Olsson</t>
+          <t>Petter Olsson, Elias Melchert Thelaus</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
